--- a/biology/Mycologie/Morchella_patula/Morchella_patula.xlsx
+++ b/biology/Mycologie/Morchella_patula/Morchella_patula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella patula est une espèce de champignons de la famille des Morchellaceae (ordre des Pezizales). C'est un excellent champignon comestible.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (19 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (19 janvier 2023) :
 Morchella patula var. gigas (Pers.) S.Imai, 1954
 Morchella patula var. patula
 Morchella patula var. semilibera (DC.) S.Imai, 1954</t>
@@ -544,11 +558,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Morchella patula (J.F.Gmel.) Pers., 1801[1],[2].
-L'espèce a été initialement classée dans le genre Phallus sous le basionyme Phallus patulus J.F.Gmel., 1792[1].
-Morchella patula a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Morchella patula (J.F.Gmel.) Pers., 1801,.
+L'espèce a été initialement classée dans le genre Phallus sous le basionyme Phallus patulus J.F.Gmel., 1792.
+Morchella patula a pour synonymes :
 Phallus patulus J.F.Gmel., 1792</t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(la) C. H. Persoon, Synopsis methodica fungorum, Göttingen, 1801, 706 p. (DOI 10.5962/BHL.TITLE.166151, lire en ligne)</t>
         </is>
